--- a/electric.xlsx
+++ b/electric.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t xml:space="preserve">STT</t>
   </si>
@@ -80,6 +80,81 @@
   </si>
   <si>
     <t xml:space="preserve">Hoàng Thu Hiền</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HD11300003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82 Lê Lai, Hà Cầu, Hà Đông</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0967453276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Quân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HD11300004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAC004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 Thanh Bình, Vạn Phúc, Hà Đông</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0367854312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đoàn Văn Bách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HD11300005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAC005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 Lê Trọng Tấn, Quang Trung, Hà Đông</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0946719823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Ngọc Ánh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HD11300006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAC006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">368 Quang Trung, Quang Trung, Hà Đông</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0786820123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Thị Ngọc Anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HD11300007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAC007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68 La Khê, Văn Khê, Hà Đông</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0986723198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Đức Bình</t>
   </si>
 </sst>
 </file>
@@ -169,8 +244,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -203,109 +282,254 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="38.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.26"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="12.66"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="2" t="n">
         <v>1530</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="2" t="n">
         <v>1234</v>
       </c>
-      <c r="I3" s="1" t="n">
-        <v>1535</v>
+      <c r="I3" s="2" t="n">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>936</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>2035</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>2120</v>
       </c>
     </row>
   </sheetData>
